--- a/Documents/need to purchase.xlsx
+++ b/Documents/need to purchase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneku16\clubs\3D-printing-club\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F55C5C8-4442-4C19-AAA3-F7F9F915AA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AB15E0-BD9D-48F4-BAA0-2EBF84121BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>item_name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>Make sure that the brush is not from steel wire.</t>
-  </si>
-  <si>
     <t>Vacuum cleaner (small)</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>for elastic filament</t>
   </si>
   <si>
-    <t>same size with printers bed</t>
-  </si>
-  <si>
     <t>organizer</t>
   </si>
   <si>
@@ -120,13 +114,49 @@
   </si>
   <si>
     <t>CPU -AMD Ryzen with 6-12 cores (AMD Ryzen 7 7700X AM5), GPU GeForce GTX 2070 +, 16GB RAM, any (DeepCool) good cooler, SSD 128 GB.</t>
+  </si>
+  <si>
+    <t>caliper</t>
+  </si>
+  <si>
+    <t>https://max.kg/itemnal/11270051/shtangentsirkul-shts-150-s-glubinometrom</t>
+  </si>
+  <si>
+    <t>https://max.kg/itemnal/12611898/11402335-organayzer-fixsen-glady-fx-00-02-termosmola-belyy-185kh105</t>
+  </si>
+  <si>
+    <t>https://geek.kg/stalnoy-magnitnyy-kovrik-/</t>
+  </si>
+  <si>
+    <t>https://geek.kg/magnitnyy-kovrik-two-trees/</t>
+  </si>
+  <si>
+    <t>for ABC, PLA, PETG</t>
+  </si>
+  <si>
+    <t>https://enter.kg/</t>
+  </si>
+  <si>
+    <t>https://humandgears.ru/nagrevatelnyj-blok-dlya-cr10-ender-3</t>
+  </si>
+  <si>
+    <t>https://geek.kg/kley-dlya-3d-printera/</t>
+  </si>
+  <si>
+    <t>1 l is enough</t>
+  </si>
+  <si>
+    <t>https://market.yandex.ru/product--usb-ustroistva-luazon-home-usb-pylesos-luazon-mr-01-dlia-pk-s-nasadkami-usb-zelenyi/2001358372610?text=мини%20пылесос%20для%20пк&amp;cpc=Tt6pXu8B2oFkldM3ci7j-mybV-sqAlM6SBuF-fEDhQsHWP58tlp-IJ4ar-e85BetgreoMwwYl71ZPMCyQKv_FgToDPYbTEIQ6erGnGl4t9HO76sjV7GPzh1i2jz3OjZOZBciSN48CltVvd6wCzPusJD20qSAkRNEc1Aojb75O6c_scR8JIXQQ2Tyh4PoR9aU&amp;sku=2001358372610&amp;do-waremd5=U4zSAbpspQuV3FfM06z3jw&amp;cpa=1&amp;nid=26913390</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +172,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +200,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -172,10 +216,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,8 +250,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +551,7 @@
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -508,120 +561,149 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -649,7 +731,20 @@
       <c r="A24" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{4C12948D-1C54-4B9D-8B49-D0A834AA51D6}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{95DCB49B-982B-4743-A90A-BF0ABB95969D}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{45780E62-6F9D-4D9B-9581-249D397C7BEF}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{3FD8474B-2A4F-493F-8F17-4C0E72EB6A5E}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{21A69596-1016-4598-97D3-72159F7CDABB}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{8F6FC4DC-13B5-4C9D-AC5D-B7190CA140E7}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{C78EB428-800C-4C8F-9E67-CD77105E1E8C}"/>
+    <hyperlink ref="D3" r:id="rId8" display="https://market.yandex.ru/product--usb-ustroistva-luazon-home-usb-pylesos-luazon-mr-01-dlia-pk-s-nasadkami-usb-zelenyi/2001358372610?text=мини%20пылесос%20для%20пк&amp;cpc=Tt6pXu8B2oFkldM3ci7j-mybV-sqAlM6SBuF-fEDhQsHWP58tlp-IJ4ar-e85BetgreoMwwYl71ZPMCyQKv_FgToDPYbTEIQ6erGnGl4t9HO76sjV7GPzh1i2jz3OjZOZBciSN48CltVvd6wCzPusJD20qSAkRNEc1Aojb75O6c_scR8JIXQQ2Tyh4PoR9aU&amp;sku=2001358372610&amp;do-waremd5=U4zSAbpspQuV3FfM06z3jw&amp;cpa=1&amp;nid=26913390" xr:uid="{8C4F9E56-4A79-4598-9028-84D6507EBDBE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>